--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1307847.55690265</v>
+        <v>1305366.637077191</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>236.8022877345457</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104941</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
@@ -1433,10 +1433,10 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>321.242168517787</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
@@ -1540,13 +1540,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S13" t="n">
-        <v>7.534866588046498</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>172.8941568982413</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>180.5636037017752</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104945</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>218.1709722629815</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>132.8660276730306</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>11.76070933255576</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292095</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1844,13 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>88.34817718578627</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>291.0632055505604</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245684</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>168.3363911711808</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1198840074562</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411911</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>256.5741985593228</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>280.716402637553</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339012</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249337</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411911</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,19 +2293,19 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258348</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.0890643413387</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247717</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>155.7512320878717</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249337</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086018</v>
+        <v>133.2594259035643</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411911</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,7 +2615,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598765</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2849,7 +2849,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957277</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124555</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092325</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862158</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>42.20693826439341</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>170.2318734253263</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383237</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D40" t="n">
-        <v>101.8902586125589</v>
+        <v>93.13769105450214</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846425</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>133.1067657762847</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010745</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482634</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092332</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621587</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333699</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
-        <v>170.2318734253259</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115161</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.20693826439368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>135.6235431859985</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1664.366365314827</v>
+        <v>1439.651501335883</v>
       </c>
       <c r="C11" t="n">
-        <v>1425.172135279931</v>
+        <v>1439.651501335883</v>
       </c>
       <c r="D11" t="n">
-        <v>1094.098503932905</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="E11" t="n">
-        <v>735.5023185943841</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645002</v>
+        <v>724.7840324589723</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299107</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.50722039599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.16881092955</v>
+        <v>3099.267412142731</v>
       </c>
       <c r="V11" t="n">
-        <v>2712.297990845703</v>
+        <v>2795.396592058884</v>
       </c>
       <c r="W11" t="n">
-        <v>2386.721402835313</v>
+        <v>2469.820004048494</v>
       </c>
       <c r="X11" t="n">
-        <v>2386.721402835313</v>
+        <v>2123.546313047137</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.774138119225</v>
+        <v>1799.059274140281</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.8338681055723</v>
+        <v>901.2692096237415</v>
       </c>
       <c r="C13" t="n">
-        <v>496.0897524373889</v>
+        <v>759.5250939555584</v>
       </c>
       <c r="D13" t="n">
-        <v>496.0897524373889</v>
+        <v>636.6005218029463</v>
       </c>
       <c r="E13" t="n">
-        <v>375.3687261147195</v>
+        <v>515.8794954802769</v>
       </c>
       <c r="F13" t="n">
-        <v>255.6708458765328</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G13" t="n">
         <v>255.6708458765328</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541142</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003738</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>2132.891132706971</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.316584536221</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="U13" t="n">
-        <v>1676.405784921589</v>
+        <v>1651.459102547703</v>
       </c>
       <c r="V13" t="n">
-        <v>1448.913363975425</v>
+        <v>1423.96668160154</v>
       </c>
       <c r="W13" t="n">
-        <v>1186.688261198188</v>
+        <v>1423.96668160154</v>
       </c>
       <c r="X13" t="n">
-        <v>985.8907775598948</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="Y13" t="n">
-        <v>792.2902656760882</v>
+        <v>1055.725607194257</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1664.366365314826</v>
+        <v>2154.8229678559</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.978886828185</v>
+        <v>1813.052518175211</v>
       </c>
       <c r="D14" t="n">
         <v>1481.978886828185</v>
@@ -5270,22 +5270,22 @@
         <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299107</v>
+        <v>81.31694793299116</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.50722039599</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.16881092955</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.297990845703</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.721402835312</v>
+        <v>2738.144952029545</v>
       </c>
       <c r="X14" t="n">
-        <v>2386.721402835312</v>
+        <v>2517.770232571987</v>
       </c>
       <c r="Y14" t="n">
-        <v>2023.774138119224</v>
+        <v>2154.8229678559</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>582.8064544743855</v>
+        <v>901.2692096237417</v>
       </c>
       <c r="C16" t="n">
-        <v>441.0623388062022</v>
+        <v>759.5250939555585</v>
       </c>
       <c r="D16" t="n">
-        <v>318.1377666535902</v>
+        <v>636.6005218029464</v>
       </c>
       <c r="E16" t="n">
-        <v>197.416740330921</v>
+        <v>515.879495480277</v>
       </c>
       <c r="F16" t="n">
-        <v>197.416740330921</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5461,25 +5461,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.863719075785</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1883.289170905035</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1621.378371290402</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="V16" t="n">
-        <v>1393.885950344239</v>
+        <v>1491.302933045422</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.660847567002</v>
+        <v>1229.077830268185</v>
       </c>
       <c r="X16" t="n">
-        <v>930.8633639287081</v>
+        <v>1229.077830268185</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.2628520449016</v>
+        <v>1035.477318384379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.240104949982</v>
+        <v>1554.55302580711</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1260.232209074495</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1260.232209074495</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>966.2289711446364</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344063</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3289.956853344063</v>
+        <v>3194.26977420119</v>
       </c>
       <c r="U17" t="n">
-        <v>3111.068076825696</v>
+        <v>3015.380997682823</v>
       </c>
       <c r="V17" t="n">
-        <v>2854.646889689922</v>
+        <v>2758.959810547049</v>
       </c>
       <c r="W17" t="n">
-        <v>2576.519934627605</v>
+        <v>2480.832855484732</v>
       </c>
       <c r="X17" t="n">
-        <v>2277.695876574322</v>
+        <v>2182.008797431449</v>
       </c>
       <c r="Y17" t="n">
-        <v>1962.198244806307</v>
+        <v>1866.511165663435</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158139</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.35235706258</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879839</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604111</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
         <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542002</v>
+        <v>1571.696340267698</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809387</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="D20" t="n">
-        <v>1224.583240809387</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>913.4366884189401</v>
+        <v>966.2289711446364</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M20" t="n">
         <v>1573.77673900139</v>
@@ -5771,22 +5771,22 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
         <v>2445.183887219624</v>
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,7 +5847,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872287</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671188</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>399.35235706258</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879839</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604113</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096714</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349359</v>
       </c>
       <c r="F23" t="n">
         <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815079</v>
+        <v>388.4813261528533</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713544</v>
+        <v>722.3006998426997</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844414</v>
+        <v>1173.334913091108</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1706.866817763033</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575121</v>
+        <v>2253.645634821815</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454458</v>
+        <v>2756.618105701152</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811636</v>
+        <v>3151.39247205833</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124121</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
         <v>3066.592761796891</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094419</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138539</v>
+        <v>639.0174115138534</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574178</v>
+        <v>544.7229287937434</v>
       </c>
       <c r="D25" t="n">
-        <v>406.217995452879</v>
+        <v>469.2479895892047</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>395.9765962146086</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>323.7283489244952</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>230.6672125070111</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634011</v>
+        <v>96.06173179634008</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667905</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
         <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720296</v>
+        <v>892.1750550720292</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362965</v>
+        <v>746.0241761362961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,61 +6212,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>677.7853483851723</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1128.819561633581</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1662.351466305506</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2642.103738532152</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,31 +6300,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6449,61 +6449,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.992678104633</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776558</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.30339983534</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.790514964339</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1394.992678104634</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N32" t="n">
-        <v>2548.674958929623</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O32" t="n">
         <v>3355.268050164795</v>
@@ -6719,28 +6719,28 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6838,13 +6838,13 @@
         <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6853,19 +6853,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973148</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982175</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6889,7 +6889,7 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
@@ -6920,13 +6920,13 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464978</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,10 +6935,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6947,7 +6947,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -7005,10 +7005,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7017,10 +7017,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,7 +7032,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170923</v>
+        <v>740.9069705127574</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630288</v>
+        <v>670.6422221586939</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>619.1970173202016</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>569.9553583116518</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>423.0654108137414</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>255.3625741884604</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>109.1453874063182</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758176</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552289</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891715</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908621</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.907860647332</v>
+        <v>823.8840007691538</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,64 +7157,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,7 +7269,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.4050786964425</v>
+        <v>543.5641013650713</v>
       </c>
       <c r="C40" t="n">
-        <v>482.1403303423789</v>
+        <v>473.299353011008</v>
       </c>
       <c r="D40" t="n">
-        <v>379.22087719838</v>
+        <v>379.2208771983795</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898303</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F40" t="n">
-        <v>281.7607052657633</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.449641246691</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.923028089547</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1274.909974457503</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1084.164238994386</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X40" t="n">
-        <v>856.174688096369</v>
+        <v>748.662276191154</v>
       </c>
       <c r="Y40" t="n">
-        <v>635.3821089528388</v>
+        <v>626.5411316214675</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647794</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368725</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D43" t="n">
-        <v>379.2208771983801</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E43" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758176</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>886.8213698466992</v>
       </c>
       <c r="X43" t="n">
-        <v>903.3718743647058</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.2507297950191</v>
+        <v>536.7106743789953</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464963</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909359</v>
+        <v>696.9279421464333</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368724</v>
+        <v>626.66319379237</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245366</v>
+        <v>575.2179889538778</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159869</v>
+        <v>525.9763299453282</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>379.0863824474178</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>211.3835458221367</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1884.661277114358</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1692.975392941184</v>
+        <v>1790.301070122837</v>
       </c>
       <c r="T46" t="n">
-        <v>1471.20877751071</v>
+        <v>1667.205889266207</v>
       </c>
       <c r="U46" t="n">
-        <v>1182.105910636354</v>
+        <v>1476.774456965694</v>
       </c>
       <c r="V46" t="n">
-        <v>1026.09285700431</v>
+        <v>1222.089968759807</v>
       </c>
       <c r="W46" t="n">
-        <v>835.3471215411929</v>
+        <v>1031.34423329669</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170189</v>
+        <v>902.0261169725161</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.9078606473322</v>
+        <v>779.9049724028296</v>
       </c>
     </row>
   </sheetData>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430629</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729005</v>
+        <v>184.4039433729006</v>
       </c>
       <c r="L8" t="n">
         <v>191.4948909389601</v>
@@ -8462,13 +8462,13 @@
         <v>181.0856325333064</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830237</v>
+        <v>179.3553748830238</v>
       </c>
       <c r="O8" t="n">
         <v>182.8301554383987</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586582</v>
+        <v>190.8908035586583</v>
       </c>
       <c r="Q8" t="n">
         <v>192.0103836266122</v>
@@ -8532,19 +8532,19 @@
         <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372531</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672271</v>
+        <v>105.9629718672272</v>
       </c>
       <c r="M9" t="n">
-        <v>104.101398125359</v>
+        <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677626</v>
+        <v>92.30246558677632</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359733</v>
+        <v>106.8829608359734</v>
       </c>
       <c r="P9" t="n">
         <v>105.3113487798322</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564656</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
         <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140776</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530923</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662703</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4994347185308</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>339.8144253784347</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.735589532676386e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9875,16 +9875,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>74.68679478748601</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>174.4519134245559</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>78.40458911672741</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>343.5485285966307</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>306.6874953089247</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>101.5504574493354</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>38.07562355114015</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292091</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.314012156269</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>25.89535190366939</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>157.789141482106</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>124.6399818283611</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>20.04580592178021</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>127.3449523393461</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>203.0294313795023</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>16.97188131598239</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>52.26435989843876</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>52.26435989843944</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-4.200726907028675e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813472.9923656941</v>
+        <v>813472.9923656943</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813472.9923656944</v>
+        <v>813472.9923656943</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>884962.8947414119</v>
+        <v>884962.8947414121</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>884962.894741412</v>
+        <v>884962.8947414121</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940071.1090080964</v>
+        <v>940071.1090080965</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914124.9382209335</v>
+        <v>914124.9382209337</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914124.9382209337</v>
+        <v>914124.9382209335</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>532529.6201660752</v>
+      </c>
+      <c r="C2" t="n">
         <v>532529.6201660751</v>
-      </c>
-      <c r="C2" t="n">
-        <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
         <v>532544.1353738651</v>
@@ -26323,37 +26323,37 @@
         <v>474201.0005882343</v>
       </c>
       <c r="F2" t="n">
-        <v>474201.0005882342</v>
+        <v>474201.0005882343</v>
       </c>
       <c r="G2" t="n">
-        <v>516445.0338102492</v>
+        <v>516445.0338102491</v>
       </c>
       <c r="H2" t="n">
         <v>516445.0338102492</v>
       </c>
       <c r="I2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="J2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="K2" t="n">
+        <v>533677.1504117838</v>
+      </c>
+      <c r="L2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="M2" t="n">
         <v>533677.150411784</v>
-      </c>
-      <c r="K2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="L2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="M2" t="n">
-        <v>533677.1504117845</v>
       </c>
       <c r="N2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="O2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="P2" t="n">
         <v>533677.1504117844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533677.1504117841</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552328</v>
+        <v>59764.55367552318</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487388</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983369</v>
+        <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
         <v>25409.43302179689</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.1092948741</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995424</v>
+        <v>421637.9387995425</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362512</v>
+        <v>38804.27401362513</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362509</v>
+        <v>38804.27401362515</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506733</v>
+        <v>75832.43437506737</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506734</v>
+        <v>75832.43437506736</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451306</v>
+        <v>88045.16093451311</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173082</v>
+        <v>84858.15940173084</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="M4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815718</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57252.77017025461</v>
+        <v>57248.35659238661</v>
       </c>
       <c r="C6" t="n">
-        <v>57252.77017025444</v>
+        <v>57248.35659238644</v>
       </c>
       <c r="D6" t="n">
-        <v>15992.73746693307</v>
+        <v>15988.37971678723</v>
       </c>
       <c r="E6" t="n">
-        <v>-730411.7359538488</v>
+        <v>-730640.4903762473</v>
       </c>
       <c r="F6" t="n">
-        <v>358827.2362097827</v>
+        <v>358598.4817873846</v>
       </c>
       <c r="G6" t="n">
-        <v>322513.8470150929</v>
+        <v>322447.5696435486</v>
       </c>
       <c r="H6" t="n">
-        <v>360093.956309967</v>
+        <v>360027.6789384226</v>
       </c>
       <c r="I6" t="n">
-        <v>337073.993345596</v>
+        <v>337073.9933455957</v>
       </c>
       <c r="J6" t="n">
-        <v>334031.6163134501</v>
+        <v>334031.6163134503</v>
       </c>
       <c r="K6" t="n">
-        <v>359441.0493352471</v>
+        <v>359441.0493352468</v>
       </c>
       <c r="L6" t="n">
-        <v>321860.940040373</v>
+        <v>321860.9400403732</v>
       </c>
       <c r="M6" t="n">
-        <v>158026.4421246533</v>
+        <v>158026.4421246528</v>
       </c>
       <c r="N6" t="n">
+        <v>360194.5421173772</v>
+      </c>
+      <c r="O6" t="n">
+        <v>360194.5421173773</v>
+      </c>
+      <c r="P6" t="n">
         <v>360194.5421173774</v>
-      </c>
-      <c r="O6" t="n">
-        <v>360194.5421173775</v>
-      </c>
-      <c r="P6" t="n">
-        <v>360194.542117377</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790699</v>
+        <v>69.78465283790688</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810301</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790699</v>
+        <v>69.78465283790688</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.13353908972356e-14</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873727</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
         <v>97.1145259275844</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672102</v>
+        <v>84.22861846672103</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698751</v>
+        <v>90.83829126987511</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519076</v>
+        <v>84.46220888519078</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990213</v>
+        <v>7.649035050990236</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317044</v>
+        <v>75.62456067317045</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075645</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>11.49558901075611</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075619</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.49558901075611</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>11.49558901075611</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075648</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544471</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>55.47778196371081</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D40" t="n">
-        <v>46.72521440565345</v>
+        <v>55.47778196371021</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>46.72521440565257</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X43" t="n">
-        <v>55.47778196371127</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.72521440565365</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>54.14548214544337</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413344</v>
+        <v>0.280541317941334</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366692</v>
+        <v>2.873093772366687</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993331</v>
+        <v>10.81556915993329</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362335</v>
+        <v>23.81059368362331</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208005</v>
+        <v>35.68590767207999</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102717</v>
+        <v>44.2715240310271</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396637</v>
+        <v>49.2606006939663</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135672</v>
+        <v>50.05768871356711</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328804</v>
+        <v>47.26805598328797</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661135</v>
+        <v>40.34219219661128</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478373</v>
+        <v>30.29530624783725</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313236</v>
+        <v>17.62255356313234</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588164</v>
+        <v>6.392835282588154</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288192</v>
+        <v>1.22806961928819</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530675</v>
+        <v>0.02244330543530671</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150102838179649</v>
+        <v>0.1501028381796488</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840295</v>
+        <v>1.449677410840292</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694056</v>
+        <v>5.168014384694048</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906938</v>
+        <v>14.18142647906936</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710587</v>
+        <v>24.23831663710583</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264704</v>
+        <v>32.59140791264699</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665931</v>
+        <v>38.03263579665924</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655705</v>
+        <v>39.03924649655698</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847114</v>
+        <v>35.71328360847108</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449806</v>
+        <v>28.66305863449802</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.1604956244759</v>
+        <v>19.16049562447587</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768035</v>
+        <v>9.319542882768021</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608829</v>
+        <v>2.788094384608825</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890236</v>
+        <v>0.6050197731890226</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345332</v>
+        <v>0.009875186722345317</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486847</v>
+        <v>0.1258411772486845</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811034</v>
+        <v>1.118842466811032</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078629</v>
+        <v>3.784387403078623</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482009</v>
+        <v>8.896971231481995</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489264</v>
+        <v>14.62045677489262</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477264</v>
+        <v>18.70915102477261</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908246</v>
+        <v>19.72617653908243</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115556</v>
+        <v>19.25713215115553</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875046</v>
+        <v>17.78707839875043</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287728</v>
+        <v>15.21991838287726</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852395</v>
+        <v>10.53748257852394</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381768</v>
+        <v>5.658276933381758</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233896</v>
+        <v>2.193068516233892</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625619</v>
+        <v>0.537685030062561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564629</v>
+        <v>0.006864064213564618</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019269</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019261</v>
+        <v>72.49856320019266</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,10 +35820,10 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>318.2864356872433</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>795.4045397707669</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>411.8780813428865</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>630.0420278168881</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>329.1988939204469</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>799.1386429889626</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>814.7404961971438</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637032</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302267</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
